--- a/DatosMachine.xlsx
+++ b/DatosMachine.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monos\Documents\GitHub\ProyectoMachine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C287516-74F3-4BE0-A22F-AE90A8EC5628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64BCE03-06FA-48A3-AE34-5C83DC42038C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3EF7D7BB-2BB8-45F2-8784-A1996DFD940B}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{3EF7D7BB-2BB8-45F2-8784-A1996DFD940B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Energia" sheetId="1" r:id="rId1"/>
+    <sheet name="Procesos" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>Año</t>
   </si>
@@ -128,13 +129,88 @@
   </si>
   <si>
     <t>72537.64</t>
+  </si>
+  <si>
+    <t>4052.13</t>
+  </si>
+  <si>
+    <t>4154.44</t>
+  </si>
+  <si>
+    <t>4413.14</t>
+  </si>
+  <si>
+    <t>4719.43</t>
+  </si>
+  <si>
+    <t>5419.92</t>
+  </si>
+  <si>
+    <t>5670.29</t>
+  </si>
+  <si>
+    <t>5329.45</t>
+  </si>
+  <si>
+    <t>5664.80</t>
+  </si>
+  <si>
+    <t>5399.43</t>
+  </si>
+  <si>
+    <t>4402.63</t>
+  </si>
+  <si>
+    <t>4940.13</t>
+  </si>
+  <si>
+    <t>4915.45</t>
+  </si>
+  <si>
+    <t>5279.26</t>
+  </si>
+  <si>
+    <t>5630.95</t>
+  </si>
+  <si>
+    <t>5614.93</t>
+  </si>
+  <si>
+    <t>6415.53</t>
+  </si>
+  <si>
+    <t>6510.63</t>
+  </si>
+  <si>
+    <t>7015.06</t>
+  </si>
+  <si>
+    <t>6570.60</t>
+  </si>
+  <si>
+    <t>5929.55</t>
+  </si>
+  <si>
+    <t>5951.96</t>
+  </si>
+  <si>
+    <t>6317.93</t>
+  </si>
+  <si>
+    <t>7089.90</t>
+  </si>
+  <si>
+    <t>7226.83</t>
+  </si>
+  <si>
+    <t>7674.89</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +222,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -207,14 +291,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,222 +662,450 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990CD07B-0350-4D74-8A21-C36EABB2C2DF}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.21875" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1990</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>1991</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>1992</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>1993</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>1994</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>1995</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>1996</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>1997</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>1998</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>1999</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>2000</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>2001</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>2002</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>2003</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>2004</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>2005</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>2006</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>2007</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>2008</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <v>2009</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>2010</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <v>2011</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>2012</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
         <v>2013</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>2014</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="4" t="s">
         <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DD4AF1-C8AB-4851-B857-E3DBD7B4AECA}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>1990</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>1991</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>1992</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>1993</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>1994</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>1995</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>1996</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>1997</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>1998</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>1999</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>2000</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>2001</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>2002</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>2003</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>2004</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>2005</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>2006</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>2007</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>2008</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>2009</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>2010</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>2011</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>2012</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>2013</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
